--- a/planing/resoruces/database blueprints/stundenplan.xlsx
+++ b/planing/resoruces/database blueprints/stundenplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\NOTENRECHNER\final\planing\resoruces\database blueprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF29D32-9C49-4D3F-9930-B848B38CC3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68FD5FE-1E76-4892-A19E-4E2A46E27DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>wochentag</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>fach</t>
+  </si>
+  <si>
+    <t>Stunden</t>
   </si>
 </sst>
 </file>
@@ -375,53 +378,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
